--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:32:25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sapi, tempe, tahu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['tepung']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Tahu Crispy Ekonomis, Tempe goreng tepung kriuk, Tempe goreng tepung renyah, Tahu krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:44:26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tempe, ayam, tahu, telur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>["'-'"]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Tempe', 'tahu', 'ayam']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Orek tempe basah bumbu ulek, Tahu Goreng Praktis ala Deyarl Kitchen, Sup kembang tahu+bakso ayam, Tempe tahu bacem simple no ribet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:53:01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['telur', 'tahu']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Chicken Katsu, Bakwan goreng ayam, Roti Goreng Isi Ragout Ayam, Kroket Ayam Kentang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-12-28 11:57:21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['tahu']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Tahu Goreng Isi Ayam, Chicken Katsu, Roti Goreng Isi Ragout Ayam, Tahu Walik Isi Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:03:25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ayam, sapi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['brokoli']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sop Iga Sapi Enaaak bangeet👌👍, Japchae with beef korean noodle 🍝 (pr_asianfood), Menu daging sapi untuk diet sehat, Tumis Beef Burger (menu balita 1y+), Buncis Wortel Cah Sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:07:10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Ayam', 'bawang putih', 'bawang merah', 'cabai', 'kunyit', 'jahe', 'lengkuas', 'daun salam', 'daun jeruk', 'serai', 'santan', 'ketumbar', 'merica', 'garam', 'gula', 'kecap manis', 'minyak goreng']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mie Ayam, Tongseng Ayam, Ayam Rica-Rica kemangi, Ayam Betutu, Rica-Rica Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,33 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:14:56</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['paprika', 'bawang putih', 'bawang bombay']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tumis buncis bakso sapi, Tumis daging sapi+sosis+kentang pedas, Simple sapi lada hitam🍖, Spicy Beef Teriyaki, Sapi Lada Hitam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +676,33 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:15:08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['paprika']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sapi Lada Hitam Saori, Sapi Lada Hitam, Sapo Terong, Jamur, Daging Sapi, Daging Sapi Masak Saus Inggris, Sapi lada hitam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,6 +703,33 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:25:41</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['telur tempe garam gula madu bawang']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Puding Tahu Cocktail, Tahu Crispy Ekonomis, Tahu Crispy, Tahu bulat</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:26:12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Puding Tahu Cocktail, Tahu Kribo, Tahu Crispy Ekonomis, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tahu krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,33 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:27:05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang', 'air']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tahu Kribo, Tahu Crispy Ekonomis, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tahu krispi, Tahu Krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,6 +784,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:27:20</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang', 'air', 'minyak']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tahu Crispy Ekonomis, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tahu Krispi, Bola tahu mozarella, Tahu Tepung Bumbu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +811,33 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:27:36</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang', 'air', 'tepung minyak']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tahu Kribo, Tahu Crispy Ekonomis, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tahu krispi, Tahu Krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,6 +838,33 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:27:54</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang', 'air', 'tepung', 'minyak']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Martabak Tahu sambel kacang, Tahu masak kuning, Tahu donburi :)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,33 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:28:35</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['telur', 'tempe', 'garam', 'gula', 'madu', 'bawang', 'air', 'tepung', 'minyak', 'kunyit', 'merica']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tahu donburi :)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,33 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:42:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['(buncis', 'tahu)']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Tumis kacang tahu sosis, Sop bakso tahu wortel buncis sederhana, Oseng 9seng sawi wortel dan tahu, Oseng tahu tempe mix wortel buncis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,33 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-12-28 12:42:34</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['(buncis', 'tahu)']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Tumis kacang tahu sosis, Sop bakso tahu wortel buncis sederhana, Oseng 9seng sawi wortel dan tahu, Oseng tahu tempe mix wortel buncis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,33 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:12:08</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>telur, ayam</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Sayur']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Telur ceplok masak tauco, Mie Ayam, Sup Baso Ayam Enoki plus Tahu 🍲, Cah Toge dan Telur Dadar #pr_recookmasakanawalanT, Orak-arik Telor</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,33 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:14:12</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>["'-'"]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['jahe', 'bawang putih', 'daun jeruk']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ayam Woku Manado, Ayam Goreng Kecap, Ayam Woku, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam Rica-Rica kemangi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,33 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:25:17</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Bola bola tahu telur puyuh simple, Bola bola tahu krispy, Tahu celup telur, Tahu Rambutan / Bola Crispy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,33 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:55:44</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>["'-'"]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['daun bawang', 'garam', 'micin']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Orek Tempe, Tumis tempe kacang panjang, Embes Embes Tempe, Oseng Buncis Tempe&amp;Tahu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,6 +1054,33 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:56:41</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tempe, udang, ikan</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['timun', 'tomat', 'nangka']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['cabai', 'santan']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tumis nanas udang pete pedas, Tongkol suwir daun kemangi 🐟😋😋, Mangut Lele &amp; Tempe, Mangut Lele &amp; Tempe, Opor Tahu Tempe Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,33 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-28 13:59:49</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['ikan kembung', 'ikan nila']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['ikan kembung', 'ikan nila']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, IKAN ASIN GABUS KERING CABE GENDOT... BY. Dapoer Linggar, Pepes Ikan Mujaer #specialforautism, Suwir tongkol kemangi, Cakalang Sous Manado ala DapurGiok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,6 +1108,33 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:00:09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ayam richeese fire wings + saus keju, Crispy chicken honey spicy / ayam goreng madu pedes garing, Ayam Kecap Manis Cabai, Sup Baso Ayam Enoki plus Tahu 🍲, Ayam Goreng Terasi ala resto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,33 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:01:58</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['kecap', 'santan']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Tahu', 'tempe']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Ayam Goreng Kecap, Tahu Goreng Isi Ayam, Chicken Katsu, Tempe&amp;tahu melet isian sate ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,6 +1162,33 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:04:09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['sayap ayam']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['daun bawang', 'bawang bombay']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam Woku Manado, Mie Ayam, Tongseng ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,33 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:05:40</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>telur</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['Telur puyuh', 'tempe']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['Cabe', 'bawang bombay']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cah Toge dan Telur Dadar #pr_recookmasakanawalanT, Telur dadar isi bayam, Tumis kol telur, Toge cah telur, Tumis kolor ijo (kol telor cabe ijo) 😅</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,6 +1216,33 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:15:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Tepung']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Terasi ala resto, Nugget ayam wortel, Ayam Goreng Bawang Khas Batam, 🍴Ayam Krispy🍴</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,33 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:21:48</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['udang', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['telur', 'ayam']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Roti gulung isi sosis ayam, Sup Baso Ayam Enoki plus Tahu 🍲, Mie Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,33 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:23:48</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['udang', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['telur', 'ayam']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Roti gulung isi sosis ayam, Sup Baso Ayam Enoki plus Tahu 🍲, Mie Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,33 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:37:33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Wortel']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Sop ayam kentang wortel, Ayam Goreng Kecap, Roti Goreng Isi Ragout Ayam, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,33 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:47:02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>["'_'"]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['Telur', 'udang', 'ikan']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, The Best Ayam Goreng Mentega, Mie Ayam, Ayam Goreng Kecap, Chicken Katsu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,6 +1351,33 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:47:40</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>["'_'"]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['Telur', 'udang', 'ikan']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, The Best Ayam Goreng Mentega, Mie Ayam, Ayam Goreng Kecap, Chicken Katsu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,6 +1378,33 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:51:57</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>tempe, udang, ikan</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>["'_'"]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['Tempe', 'ikan', 'udang']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Chilli Tuna Puff Kilat Super Yummy 😙, Ikan Bandeng Goreng, Suwir tongkol kemangi, Udang rebus mentega</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,6 +1405,33 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:53:21</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ikan, tahu, tempe</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>["'-'"]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['Ikan', 'tahu', 'tempe']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Orek tempe basah bumbu ulek, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tempe isi Sambel, Keripik Tempe Sagu Tani</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,6 +1432,33 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:53:24</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>tempe, udang, ikan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>["'_'"]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['Tempe', 'ikan', 'udang']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Chilli Tuna Puff Kilat Super Yummy 😙, Ikan Bandeng Goreng, Suwir tongkol kemangi, Udang rebus mentega</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,6 +1459,33 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:55:45</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>tempe, udang, ikan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>["'_'"]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['Tempe', 'ikan', 'udang']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Chilli Tuna Puff Kilat Super Yummy 😙, Ikan Bandeng Goreng, Suwir tongkol kemangi, Udang rebus mentega</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,6 +1486,33 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-12-28 14:55:51</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ikan, tahu, tempe</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>["'-'"]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['Ikan', 'tahu', 'tempe']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Orek tempe basah bumbu ulek, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tempe isi Sambel, Keripik Tempe Sagu Tani</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,6 +1513,33 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-12-28 15:03:58</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ayam, tempe, tahu</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['bayam']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ayam goreng super duper simple, Ayam Goreng Bawang Khas Batam, Perkedel Tahu Simple, Siomay ayam, Sosis Gulung Ayam Daun Gedi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,6 +1540,33 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-12-28 15:51:50</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sapi, ayam, tahu, telur, tempe</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['Udang', 'ikan laut']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['Ayam', 'sapi', 'telur', 'tahu', 'tempe']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Tahu Goreng Praktis ala Deyarl Kitchen, Perkedel Tahu Simple, Perkedel Tahu, Bola bola tahu telur puyuh simple</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,6 +1567,33 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-12-28 17:21:40</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>telur</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['Sawi']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Telur ceplok masak tauco, Tumis sayur orak arik (kol, sawi, telor, baso), Tumis kol telur, Capcay telur, Tumis Sawi Putih dan Telur orak arik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,6 +1594,33 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-12-28 17:24:29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['Tepung']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Terasi ala resto, Nugget ayam wortel, Ayam Goreng Bawang Khas Batam, 🍴Ayam Krispy🍴</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,6 +1621,33 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-12-28 17:24:35</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['Tepung']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Terasi ala resto, Nugget ayam wortel, Ayam Goreng Bawang Khas Batam, 🍴Ayam Krispy🍴</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,6 +1648,33 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-12-28 18:01:48</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['Sayur']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Lodeh TKL (tempe, kacang panjang, labu siam), Orek tempe, Tumis oyong wortel tempe, Oseng Tempe Bawang Bombay (Eat Clean)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,6 +1675,33 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-12-28 18:30:17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['telur', 'daun bawang']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Oseng Tempe &amp; Telur Kecap, Perkedel Tempe, Perkedel Tempe, Tempe Goreng Tepung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,6 +1702,33 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-12-28 19:00:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['Susu']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['Daging']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Tempe Melet👅, 91. Bakso Tempe, Perkedel Tempe #kisahkasihcookpad, Tempe isi Sambel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1729,6 +1729,33 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-12-28 20:25:13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['Sayuran']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Sup Ikan Salmon, Grilled Tuna, Tenggiri kuah asam pedas, Vegetable-etti (sphagetti) with tuna saos mayo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,6 +1756,33 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:00:49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ayam, udang</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['Bawang putih', 'saus tiram', 'kecap inggris']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Udang saos asem manis simple, Ayam goreng mentega, Chicken terriyaki saos lada hitam, Udang Asam Manis, Udang Asam Manis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,6 +1783,33 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:46:54</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ayam, tempe, telur</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['ayam']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ayam goreng super duper simple, Telur dadar ayam kukus (untuk diet), Telor dadar endol, Ayam Goreng minim bumbu, Sup kembang tahu+bakso ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,33 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:02:05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>udang, tempe</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['Telur', 'ikan']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['Jamur']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tumis Jamur Tiram Udang, Udang saos mentega enakkk, Udang Saus Tiram, Udang asam manis, Udang jamur saos teriyaki</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,6 +1837,33 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:04:43</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sapi, telur</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Balado telur ceplok, Tumis kolor ijo (kol telor cabe ijo) 😅, Dadar telor cah toge, Mie sayur orak arik telur👌, Telur ceplok bawang cabe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +1864,33 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:05:07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tumis buncis bakso sapi, Kikil Sapi Saus Tiram Pedas, Sop buntut sapi brokoli apa adanya 😂👇, Sum2 sapi cabai hijau, Nasi goreng beef teriyaki</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,6 +1891,33 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:07:12</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['Cabe']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sop buntut sapi brokoli apa adanya 😂👇, Sum2 sapi cabai hijau, Nasi goreng beef teriyaki, Bakso Sapi (Pakai Blender), Bakso Sapi &amp; Udang cah Paprika</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,6 +1918,33 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:08:35</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['Cabe', 'cabai']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Sop buntut sapi brokoli apa adanya 😂👇, Sum2 sapi cabai hijau, Bakso Sapi (Pakai Blender), Smoke beef sandwich with cheddar cheese, Beef teriyaki</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,6 +1945,33 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:09:42</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['Cabe', 'cabai']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['Tahu']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Sempol udang, Hekeng udang, Kekian ayam udang, Sambel goreng udang tahu, Nugget Udang Tahu Wortel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,6 +1972,33 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:10:04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['Tempe']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Oseng Tempe Udang, Sayur Lodeh Udang, Udang Bakar, Udang Asam Pedas, Sambal udang petai tempe ada di Dapur Mamah Cantik</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,6 +1999,33 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:10:34</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['Telur', 'cabai']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['Tempe']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Oseng Tempe Udang, Udang Bakar, Udang Asam Pedas, Sambal udang petai tempe ada di Dapur Mamah Cantik, Sambel kentang+tempe+udang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,6 +2026,33 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:10:55</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['Telur', 'cabai', 'cabe']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['Tempe']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Udang Bakar, Sambel kentang+tempe+udang, Sambel goreng udang tahu, Rempeyek udang kecil enak dan gurih, Soto Udang Medan #pr_homemadestreetfood</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2053,33 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:11:44</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['Telur', 'cabai', 'cabe', 'jeruk nipis']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['Tempe']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sambel kentang+tempe+udang, Dimsum siomay udang ayam, Sambel goreng udang tahu, Tumis Sayur with Shrimp, Rempeyek udang kecil enak dan gurih</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,6 +2080,33 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:14:23</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>telur</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['Cabai', 'cabe']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['Nasi']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Sushi isi telur &amp; sosis, Sate Telur Gulung Crispy Ekonomis Isi Sosis | 1 Resep Jadi 24pcs, Es Krim dengan Egg Roll, Telur crispy, Telur Krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,6 +2107,33 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:18:19</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['Tepung']</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Tahu Rambutan, Bola-Bola Tahu Isi Sosis Keju, Tahu krispy, Tahu krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2134,6 +2134,33 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:19:18</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Balado Tempe Pete, TeTeP (Terong Tempe Penyet) sambal Terasi, Tempe Penyet Sambal Terasi, Tumis tempe kacang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,6 +2161,33 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-29 07:20:42</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tempe</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['Tomat']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Balado Tempe Pete, TeTeP (Terong Tempe Penyet) sambal Terasi, Tempe Penyet Sambal Terasi, Tumis tempe kacang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,6 +2188,33 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-29 09:50:39</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ikan, kambing</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Nasi Goreng Kambing...ala kebon sirih, Ikan Bandeng Goreng, Mushrooms Tuna Puff, Ikan Tuna dan Bakso Saus Lada Hitam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,6 +2215,33 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-29 18:10:39</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['ayam', 'telur', 'bawang merah', 'bawang putih', 'minyak', 'garam', 'gula', 'penyedap rasa', 'laos', 'daun bawang']</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Mie Ayam, Ayam Rica-rica, Ayam Goreng Bawang Khas Batam, Tongseng Ayam, Tumis ayam saos lada hitam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,6 +2242,33 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-29 18:12:54</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['ketumbar']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['ayam', 'telur', 'bawang merah', 'bawang putih', 'minyak', 'garam', 'gula', 'penyedap rasa', 'laos', 'daun bawang']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Mie Ayam, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam Woku Manado, Ayam Kecap Manis Cabai</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,6 +2269,33 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-29 18:13:03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['ketumbar', 'kecap']</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['ayam', 'telur', 'bawang merah', 'bawang putih', 'minyak', 'garam', 'gula', 'penyedap rasa', 'laos', 'daun bawang']</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Ayam Woku Manado, Ayam bumbu rempah, Sup ayam soun, Ayam saos padang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2296,6 +2296,33 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-29 18:13:17</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['ketumbar', 'kecap', 'jahe']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['ayam', 'telur', 'bawang merah', 'bawang putih', 'minyak', 'garam', 'gula', 'penyedap rasa', 'laos', 'daun bawang']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Ayam saos padang, Ayam Geprek Sambal Korek, Bakso Ayam, Ayam geprek 'jessi' 🤣, Sop Ayam 'semua bisa'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,6 +2323,33 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-29 18:22:18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['Ikan']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['Ayam', 'brokoli', 'wortel', 'kentang', 'buncis', 'labu siam.']</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sop ayam kentang wortel, Ayam Goreng Kecap, Mie Ayam, Sup ayam soun, Ayam Goreng Bawang Khas Batam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,6 +2350,33 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-29 19:08:38</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['Ayam', 'udang']</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, The Best Ayam Goreng Mentega, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Sup Baso Ayam Enoki plus Tahu 🍲, Kung Pao Chicken</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2377,6 +2377,33 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-30 02:25:44</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>tempe, sapi</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['pete', 'jengkol']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['salmon', 'lele']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Bekal Praktis Beef Patty Burger Teriyaki #MaMaKei, Mini Bread with Beef Pastrami Bekal Anak, Menu daging sapi untuk diet sehat, Beef steak 🥩 simple #keto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2404,6 +2404,33 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:54:17</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['udang', 'cumi', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['telur', 'babi']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Nugget ayam wortel, Bakwan goreng ayam, Roti gulung isi sosis ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2431,6 +2431,33 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:54:51</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['udang', 'cumi', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['tai']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Ayam Goreng Kecap, Ayam Woku Manado, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Mie Ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,6 +2458,33 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:55:14</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Garlic Rice with Shrimp ball and Fresh Kimchi, Shrimp Aglio Olio Spaghetti, Honey Walnut Shrimp (udang saos madu), Prawn Tapioca</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,6 +2485,33 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:57:20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kambing, telur</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['bawang putih']</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Telur dadar isi bayam, Cah Toge dan Telur Dadar #pr_recookmasakanawalanT, Tumis kol telur, Telur Dadar ranjauu🌶 #pr_recookmasakanawalanT, Nasi Goreng Kambing...ala kebon sirih</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,33 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:58:45</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['udang', 'bawang', 'telur']</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Perkedel kentang tongkol, Batagor Ikan Tongkol, Fillet Kakap Tumis Bawang, Nasi Goreng Ikan Tuna</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2539,6 +2539,33 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-30 09:59:17</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['udang', 'bawang', 'telur', 'daging']</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Perkedel kentang tongkol, Fillet Kakap Tumis Bawang, Batagor Ikan Tongkol, Tenggiri kuah asam pedas</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2566,6 +2566,33 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-30 12:35:22</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tahu, ayam, kambing</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['telur', 'udang', 'tepung', 'sasa']</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Tahu Rambutan, Tahu Udang Kribo, Bakwan goreng ayam, Nugget ayam anti rontok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2593,6 +2593,33 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-30 13:20:56</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['Tidak ada']</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Risol mayo kornet sapi, Nugget daging sapi, Nugget Daging Sapi, Risoles Beef Cheese Mayo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2620,6 +2620,33 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-12-30 13:22:19</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>telur</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['NA']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Telur kacang panjang SambaL kemangi, Tauco telor ceplok, Cah Timun Telur, Telur Acak mixed sayuran, Tumis Brokoli Tahu Telur Jamur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,6 +2647,33 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-01-02 12:37:52</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tahu, tempe</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['tahu', 'tempe']</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Orek tempe basah bumbu ulek, Tahu Tepung Instan #Bandung_RecookSariUtamiKimdonghwa, Tempe Melet👅, Tahu walek</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,6 +2674,33 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-01-02 12:39:34</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ayam, telur, udang</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['Ayam', 'Udang', 'Telur']</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Sempol udang, Chicken Katsu, Telur crispy, Siomay udang ayam 😋</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,6 +2701,33 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-01-02 12:46:44</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ayam, udang, tahu, telur, sapi</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>['kepiting']</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['telur asin', 'tepung', 'saus tiram', 'mentega', 'ayam', 'udang', 'telur', 'sapi', 'tofu']</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Beef Steak with Blackpepper Sauce, Rolade ayam, Steak Ayam Crispy Saos Barbeque, Siomay ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2728,6 +2728,33 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-01-03 12:26:53</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['keju']</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ayam richeese fire wings + saus keju, Chicken Salad with dressing, Macaroni Schotel dgn Ayam, Roti gulung isi sosis ayam, Steak ayam panir keju</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2755,6 +2755,33 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-01-06 19:55:42</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['ayam']</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Bakso Daging Sapi, Menu daging sapi untuk diet sehat, Menu daging sapi untuk diet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2782,6 +2782,33 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:28:06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ayam, sapi, tempe, telur</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['Ayam', 'telur', 'sapi']</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Tahu walik bakso ayam simple, Mie Sapi Lada Hitam, Bakso sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2809,6 +2809,33 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:29:49</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>['telur', 'udang']</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['apakek']</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu, Bola tahu wortel, Gulai Pedas Kikil Tahu, Tahu Unyil, Tahu walik crispy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2836,6 +2836,33 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:30:51</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ayam, sapi, tempe, telur</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['Ayam', 'telur', 'sapi', 'nasi']</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Telur Krispi, Mie Sapi Lada Hitam, Telur dadar ayam kukus (untuk diet)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2863,6 +2863,33 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:31:38</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ayam, sapi, tempe, telur</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['Ayam', 'telur', 'sapi', 'beras']</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Tahu walik bakso ayam simple, Telur Separuh Masak, Sempol daging sapi, Bakso hati dan daging sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2890,6 +2890,33 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:39:30</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ayam, sapi, telur</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['ayam', 'sapi', 'telur']</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sop Iga Sapi Enaaak bangeet👌👍, Soto Daging Iga Sapi, Japchae with beef korean noodle 🍝 (pr_asianfood), Lapis daging sapi, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2917,6 +2917,33 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:39:34</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>tahu, kambing, telur</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['tahu', 'kambing', 'telur']</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Telur crispy, Bola bola tahu telur puyuh simple, Tahu Rambutan / Bola Crispy, Tahu rambutan isi telur puyuh</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2944,6 +2944,33 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:43:19</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['ayam']</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Mie Ayam, Ayam goreng super duper simple, Ayam Goreng Kecap, The Best Ayam Goreng Mentega</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2971,6 +2971,33 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:44:46</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>telur</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['gula', 'susu']</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Telur ceplok masak tauco, Tim telor daging cincang, Teh telur, Mie goreng sosis telur, Orek Telur Caisim</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,6 +2998,33 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:45:10</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>['jahe', 'bawang']</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['ayam']</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Ayam goreng super duper simple, Chicken steak ala akari papa, Sayap Goreng Bumbu Ngo Hiang, Sop ayam jamur, Parmesan Hot Chicken Wing -Keto #ketopad</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,6 +3025,33 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:48:27</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ayam, ikan, kambing, sapi, tahu, telur, tempe, udang</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['truffle']</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Long Lamb Sate, Prawn Tapioca, Beef Steak with mac and cheese, Lele rica rica kemangi gampang sekali, Plao (rice with lamb)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,6 +3052,33 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:50:35</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['truffle']</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Soto Ayam, Tongseng ayam kebanjiran, Ayam geprek kekinian, Kalio ayam kenangan, Ayam goreng lengkuas kremes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3079,6 +3079,33 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:51:33</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>tempe, kambing</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>['Keju']</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bola-Bola Tempe, Tempe Goreng Telur, Bola bola tempe isi telur puyuh, Tempe Goreng Telur, Nuget tempe&amp;perkedel tempe dalam 1resep💓</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3106,6 +3106,33 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:52:17</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ayam, tempe, sapi</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Risol mayo kornet sapi, Bola-Bola Tempe, Bola bola tempe isi telur puyuh, Roti gulung isi sosis ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,6 +3133,33 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:52:55</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ayam, tempe, sapi</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['garam']</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Ayam Rica-rica, Ayam asep ala rawid kitchen, Orek tempe basah bumbu ulek, Rica rica ayam kecap, Lapis daging sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3160,6 +3160,33 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:58:45</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ayam, tempe, sapi</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['garam']</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Lapis daging sapi, Ayam Rica-rica, Ayam asep ala rawid kitchen, Tempe Goreng Pedas Manis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3187,6 +3187,33 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-01-06 20:59:36</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['garam']</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Garlic Rice with Shrimp ball and Fresh Kimchi, Shrimp Aglio Olio Spaghetti, Honey Walnut Shrimp (udang saos madu), Prawn Tapioca</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3214,6 +3214,33 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:00:12</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>['udang', 'telur']</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['garam']</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Garlic Rice with Shrimp ball and Fresh Kimchi, Shrimp Aglio Olio Spaghetti, Honey Walnut Shrimp (udang saos madu), Prawn Tapioca</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,6 +3241,33 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:04:04</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ayam, kambing, sapi, telur</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['tomat']</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Oseng Ayam Tomat Suwir, Garang ayam, Balado telur ceplok, Tumis sayur orak arik (kol, sawi, telor, baso), Lidah Sapi Cabe Hijau</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3268,6 +3268,33 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:04:08</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['ayam', 'bawang', 'cabai', 'garam', 'mentega']</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Ayam Kecap, Tumis sawi ayam potong dadu#ketogenic, Ayam Saos Asam Manis Simple, Ayam Geprek, Chicken steak ala akari papa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3295,6 +3295,33 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:04:24</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>['telur', 'keju']</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['bawang putih', 'bawang bombay']</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam goreng mentega, Ayam Woku Manado, Tongseng ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3322,33 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:11:12</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>['Micin']</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['Babi']</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Beef burger puff, Cara Merebus &amp; Menyimpan Susu Sapi Murni yang Baik &amp; Benar, Bakso Sapi Kenyal Home Made lengkap dengan gambar, Risol mayo smoke beef</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,6 +3349,33 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-01-06 21:56:06</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>udang</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['tepung']</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Udang goreng tepung saos tartar, Sempol udang, Udang goreng tepung, Udang goreng tempura, Nugget Udang Tahu Wortel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3376,6 +3376,33 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:02:13</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ayam, sapi</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Risol mayo kornet sapi, Roti gulung isi sosis ayam, Bola2 Ayam isi Telur Puyuh, Bakwan goreng ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3403,33 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:19:08</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>telur, udang</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['telur', 'udang']</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Telur crispy, Sempol udang, Tempe Goreng Telur, Telur crispy pedas, Cemilan serba telur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3430,6 +3430,33 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:25:11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ayam, ikan, tempe, tahu, telur</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>['Udang', 'cumi', 'susu sapi', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['Ayam', 'telur', 'sayuran', 'kunyit', 'jahe', 'garam', 'gula', 'Laos', 'ketumbar', 'paprika', 'kecap']</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Mie Ayam, Perkedel Tahu Simple, Semur telur kentang tahu, Semur telur kentang tahu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3457,6 +3457,33 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:28:13</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ayam, telur, tempe</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>['Udang', 'cumi', 'susu sapi', 'kepiting']</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['Ayam', 'telur', 'sayuran', 'kunyit', 'jahe', 'garam', 'gula', 'Laos', 'ketumbar', 'paprika', 'kecap']</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Mie Ayam, Semur telur kentang tahu, Telur ceplok masak tauco, Semur Telur &amp; Kentang</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3484,6 +3484,33 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-01-06 23:09:23</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Bakwan goreng ayam, Nugget ayam wortel, Roti gulung isi sosis ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3511,6 +3511,33 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-01-06 23:11:18</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Bakwan goreng ayam, Nugget ayam wortel, Roti gulung isi sosis ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3538,6 +3538,33 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-01-06 23:13:09</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ayam, tahu</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>['susu']</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['cabai']</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Oseng pedas tahu pong, Tahu &amp; Telur Kecap, Tumis kikil tahu exsta pedas, Sayur tahu kacang panjang labusiam, Ayam Goreng Kecap</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,6 +3565,33 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-01-06 23:14:15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ayam, telur</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['tepung']</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Telur crispy, Telur crispy pedas, 🍴Ayam Krispy🍴, Chicken popcorn, Telur crispy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,6 +3592,33 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-01-06 23:15:29</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>sapi</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>['susu', 'udang', 'kacang']</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['tahu', 'sayuran']</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Pepes tahu tetelan sapi, Sop iga sapi, Sop Iga Sapi Enaaak bangeet👌👍, Sop kembang tahu iga sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,6 +3619,33 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-01-07 06:51:40</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>sapi, telur</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['Telur', 'otak sapi']</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Bakso Sapi Goreng, Bakso Daging Sapi, Lumpia rebung, ebi, telur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,6 +3646,33 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-01-07 06:52:40</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>sapi, telur</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['Telur', 'sapi']</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Sop TuLdag sapi 👍, Mie Sapi Lada Hitam, Bakso sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3673,6 +3673,33 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-01-07 06:54:00</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>sapi, telur</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>['Kacang']</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['Telur', 'sapi']</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Sempol daging sapi, Sop TuLdag sapi 👍, Soto Daging Iga Sapi, Mie Sapi Lada Hitam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3700,6 +3700,33 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-01-07 09:20:12</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, The Best Ayam Goreng Mentega, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Kung Pao Chicken, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3727,6 +3727,33 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-01-07 09:20:34</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, The Best Ayam Goreng Mentega, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Kung Pao Chicken, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3754,6 +3754,33 @@
         </is>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-01-07 09:21:04</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, The Best Ayam Goreng Mentega, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Kung Pao Chicken, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3781,6 +3781,33 @@
         </is>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-01-07 09:21:14</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>['Telur']</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['Udang']</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, The Best Ayam Goreng Mentega, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Kung Pao Chicken, Sup Baso Ayam Enoki plus Tahu 🍲</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,6 +3808,33 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-01-07 09:48:15</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>['Susu', 'telur']</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['Kecap']</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Gurami saos lada hitam, Salmon Saos Mentega, Gurame saos mangga, Gurame Asam Manis Seadanya, Gurame Asam Manis</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3835,6 +3835,33 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-01-07 10:28:23</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>telur, tempe, tahu</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Perkedel Tahu Simple, Sapo Tahu, Tempe isi Sambel, Telor dadar endol</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,6 +3862,33 @@
         </is>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-01-07 10:39:39</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ikan, kambing</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>['Susu']</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['Wortel', 'jagung', 'telur', 'tomat']</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Nasi Goreng Kambing...ala kebon sirih, Perkedel kentang tongkol, Sarden Bakso Sosis Pete ala Stella, Sop tuna</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3889,6 +3889,33 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-01-07 10:39:45</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ikan, kambing</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>['Susu']</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['Wortel', 'jagung', 'telur', 'tomat']</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Nasi Goreng Kambing...ala kebon sirih, Perkedel kentang tongkol, Sarden Bakso Sosis Pete ala Stella, Sop tuna</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3916,6 +3916,33 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-01-07 10:40:28</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>kambing</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>['Susu']</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['Wortel', 'jagung', 'telur', 'tomat']</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Nasi Goreng Kambing...ala kebon sirih, NASI KEBULI MAGICOM #KitaBerbagi, Sop daging + emes anti gagal, Sandwich domba ketemu telur, Tongseng Kambing #kitaberbagi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3943,6 +3943,33 @@
         </is>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-01-07 10:44:38</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ikan, udang</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>['Susu']</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['Wortel', 'jagung', 'telur', 'tomat']</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Chilli Tuna Puff Kilat Super Yummy 😙, Udang bungkus telur, Udang Sayur Saos Tomat, Capcay tahu udang, Tumis udang dan udang krispi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,6 +3970,33 @@
         </is>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-01-07 16:19:32</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>kambing, ayam, sapi, ikan</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Bakso Sapi (Pakai Blender), Long Lamb Sate, Whole bread tuna pizza, Beef Steak with mac and cheese, Plao (rice with lamb)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3997,6 +3997,33 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-01-07 16:20:24</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ayam, udang, telur</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['Keju', 'tepung']</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Telur crispy, Telur Krispi, Telur crispy pedas, Udang goreng tepung saos tartar, Nugget ayam anti rontok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4024,6 +4024,33 @@
         </is>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-01-07 19:38:06</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>tahu</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['ayam', 'telur']</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Perkedel Tahu Simple, Bola bola tahu telur puyuh simple, Tahu walik bakso ayam simple, Tahu Rambutan / Bola Crispy, Tahu Telur Puyuh Goreng#Ketopad_CP_Telur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,6 +4051,33 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-01-07 19:39:27</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ayam, udang</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['ampela']</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Gulai ayam bumbu padang, Sempol udang, Soto Ayam Kuah Santan, Sop ayam jamur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4078,6 +4078,33 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-01-07 19:42:36</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>kambing</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>['udang']</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['kentang']</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Nasi Goreng Kambing...ala kebon sirih, NASI KEBULI MAGICOM #KitaBerbagi, Nasi Kebuli, Tongseng Kambing (no santan) #KitaBerbagi, Tongseng Kambing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4105,6 +4105,33 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-01-07 19:43:29</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>kambing</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['kentang']</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Nasi Goreng Kambing...ala kebon sirih, Tongseng Kambing (no santan) #KitaBerbagi, Tongseng Kambing, Sop daging kambing, Sup iga, buntut &amp; daging kambing nggak prengus 🙂</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4132,6 +4132,33 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-01-07 20:07:22</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam Woku Manado, Ayam goreng mentega, Ayam Goreng Mentega</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,6 +4159,33 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-01-07 20:09:43</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ayam, tempe</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Orek tempe basah bumbu ulek, Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Sambal tempe, Orek tempe</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4186,6 +4186,33 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-01-07 20:36:11</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['ayam']</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Bawang Khas Batam, Mie Ayam, Ayam goreng super duper simple, The Best Ayam Goreng Mentega, Chicken Katsu</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4213,6 +4213,33 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-01-08 16:35:51</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['Sayur']</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Mie Ayam, Ayam Goreng Bawang Khas Batam, Sup Baso Ayam Enoki plus Tahu 🍲, Bakso Ayam, Sup ayam soun</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4240,6 +4240,33 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-01-08 22:26:42</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ayam, sapi, kambing</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>['telur', 'keju']</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['cabai', 'garam', 'mayonnaise', 'mentega']</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Nasi Goreng Kambing...ala kebon sirih, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Ayam Goreng Kecap, Japchae with beef korean noodle 🍝 (pr_asianfood), Lapis daging sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4267,6 +4267,33 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-01-08 22:27:06</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ayam, ikan</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>['telur', 'keju']</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['cabai', 'garam', 'mayonnaise', 'mentega']</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Tenggiri kuah asam pedas, Ayam goreng mentega, Kung Pao Chicken</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4294,6 +4294,33 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-01-09 09:25:28</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ikan</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>['-']</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['bawang', 'garam']</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Tenggiri kuah asam pedas, Sarden Pindang Tongkol Bumbu Iris, Oseng Ikan Asin Klotok, Sarden Tumis Pedas, Lele sambal simpel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data_InOut.xlsx
+++ b/User_Data_InOut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,33 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-01-20 11:56:18</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ayam</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>['kacang']</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Chicken Katsu, Ayam Goreng Bawang Khas Batam, Bakwan goreng ayam, Nugget ayam wortel, Roti gulung isi sosis ayam</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
